--- a/AAII_Financials/Yearly/GRAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRAB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>GRAB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -665,7 +665,8 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -739,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1070000</v>
+        <v>1063000</v>
       </c>
       <c r="E9" s="3">
         <v>963000</v>
@@ -766,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-395000</v>
+        <v>-388000</v>
       </c>
       <c r="E10" s="3">
         <v>-494000</v>
@@ -806,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>357000</v>
+        <v>356000</v>
       </c>
       <c r="E12" s="3">
         <v>257000</v>
@@ -860,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>372000</v>
+        <v>379000</v>
       </c>
       <c r="E14" s="3">
         <v>63000</v>
@@ -991,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1644000</v>
+        <v>57000</v>
       </c>
       <c r="E20" s="3">
         <v>-1445000</v>
@@ -1017,8 +1018,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-1506000</v>
       </c>
       <c r="E21" s="3">
         <v>-2356000</v>
@@ -1045,25 +1046,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1701000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1180,7 +1181,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3555000</v>
+        <v>-3449000</v>
       </c>
       <c r="E27" s="3">
         <v>-2608000</v>
@@ -1315,7 +1316,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1644000</v>
+        <v>-57000</v>
       </c>
       <c r="E32" s="3">
         <v>1445000</v>
@@ -1342,7 +1343,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3555000</v>
+        <v>-3449000</v>
       </c>
       <c r="E33" s="3">
         <v>-2608000</v>
@@ -1396,7 +1397,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3555000</v>
+        <v>-3449000</v>
       </c>
       <c r="E35" s="3">
         <v>-2608000</v>
@@ -1480,8 +1481,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>4397000</v>
       </c>
       <c r="E41" s="3">
         <v>1886000</v>
@@ -1507,8 +1508,8 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>3882000</v>
       </c>
       <c r="E42" s="3">
         <v>1620000</v>
@@ -1534,8 +1535,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>311000</v>
       </c>
       <c r="E43" s="3">
         <v>212000</v>
@@ -1561,8 +1562,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>4000</v>
       </c>
       <c r="E44" s="3">
         <v>3000</v>
@@ -1588,8 +1589,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>81000</v>
       </c>
       <c r="E45" s="3">
         <v>34000</v>
@@ -1642,8 +1643,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>1382000</v>
       </c>
       <c r="E47" s="3">
         <v>390000</v>
@@ -1669,8 +1670,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>441000</v>
       </c>
       <c r="E48" s="3">
         <v>366000</v>
@@ -1696,8 +1697,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>675000</v>
       </c>
       <c r="E49" s="3">
         <v>931000</v>
@@ -1778,25 +1779,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1884,8 +1885,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>441000</v>
       </c>
       <c r="E57" s="3">
         <v>661000</v>
@@ -1911,8 +1912,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>144000</v>
       </c>
       <c r="E58" s="3">
         <v>140000</v>
@@ -1938,8 +1939,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>441000</v>
       </c>
       <c r="E59" s="3">
         <v>35000</v>
@@ -1993,7 +1994,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2031000</v>
       </c>
       <c r="E61" s="3">
         <v>10878000</v>
@@ -2020,7 +2021,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2133000</v>
+        <v>102000</v>
       </c>
       <c r="E62" s="3">
         <v>22000</v>
@@ -2128,7 +2129,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3159000</v>
+        <v>3445000</v>
       </c>
       <c r="E66" s="3">
         <v>11841000</v>
@@ -2275,8 +2276,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-13796000</v>
       </c>
       <c r="E72" s="3">
         <v>-6539000</v>
@@ -2384,7 +2385,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8019000</v>
+        <v>7733000</v>
       </c>
       <c r="E76" s="3">
         <v>-6399000</v>
@@ -2470,7 +2471,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3555000</v>
+        <v>-3449000</v>
       </c>
       <c r="E81" s="3">
         <v>-2608000</v>
@@ -2509,8 +2510,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>345000</v>
       </c>
       <c r="E83" s="3">
         <v>387000</v>
@@ -2711,8 +2712,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-73000</v>
       </c>
       <c r="E91" s="3">
         <v>-22000</v>
@@ -2793,7 +2794,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2759000</v>
+        <v>-2757000</v>
       </c>
       <c r="E94" s="3">
         <v>-318000</v>
@@ -2967,8 +2968,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-37000</v>
       </c>
       <c r="E101" s="3">
         <v>15000</v>
@@ -2994,8 +2995,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>2834000</v>
       </c>
       <c r="E102" s="3">
         <v>632000</v>

--- a/AAII_Financials/Yearly/GRAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRAB_YR_FIN.xlsx
@@ -743,7 +743,7 @@
         <v>1063000</v>
       </c>
       <c r="E9" s="3">
-        <v>963000</v>
+        <v>948000</v>
       </c>
       <c r="F9" s="3">
         <v>1320000</v>
@@ -770,7 +770,7 @@
         <v>-388000</v>
       </c>
       <c r="E10" s="3">
-        <v>-494000</v>
+        <v>-479000</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -864,7 +864,7 @@
         <v>379000</v>
       </c>
       <c r="E14" s="3">
-        <v>63000</v>
+        <v>88000</v>
       </c>
       <c r="F14" s="3">
         <v>56000</v>
@@ -928,7 +928,7 @@
         <v>2583000</v>
       </c>
       <c r="E17" s="3">
-        <v>1767000</v>
+        <v>1782000</v>
       </c>
       <c r="F17" s="3">
         <v>2165000</v>
@@ -955,7 +955,7 @@
         <v>-1908000</v>
       </c>
       <c r="E18" s="3">
-        <v>-1298000</v>
+        <v>-1313000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -995,7 +995,7 @@
         <v>57000</v>
       </c>
       <c r="E20" s="3">
-        <v>-1445000</v>
+        <v>-1430000</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1319,7 +1319,7 @@
         <v>-57000</v>
       </c>
       <c r="E32" s="3">
-        <v>1445000</v>
+        <v>1430000</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GRAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRAB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>GRAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,38 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -706,21 +706,24 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1433000</v>
+      </c>
+      <c r="E8" s="3">
         <v>675000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>469000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -733,24 +736,27 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1063000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>948000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1320000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,21 +766,24 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-388000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-479000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,23 +813,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E12" s="3">
         <v>356000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>257000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>231000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,24 +870,27 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E14" s="3">
         <v>379000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>88000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>56000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -881,9 +900,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,9 +930,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,23 +944,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2806000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2583000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1782000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2165000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -945,21 +971,24 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1373000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1908000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1313000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,9 +1001,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,20 +1018,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-361000</v>
+      </c>
+      <c r="E20" s="3">
         <v>57000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1430000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1012,24 +1045,27 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1584000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1506000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2356000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3334000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,18 +1075,21 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>1701000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,24 +1105,27 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1734000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3552000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2743000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3981000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,24 +1135,27 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1120,9 +1165,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,24 +1195,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1742000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3555000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2745000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3988000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,24 +1225,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1683000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3449000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2608000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3747000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,9 +1255,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,9 +1315,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,21 +1375,24 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-57000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1430000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1336,24 +1405,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1683000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3449000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2608000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3747000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1363,9 +1435,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,24 +1465,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1683000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3449000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2608000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3747000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1417,29 +1495,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1449,9 +1530,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,23 +1561,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1952000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4397000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1886000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1023000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,24 +1588,27 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3134000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3882000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1620000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1770000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,24 +1618,27 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E43" s="3">
         <v>311000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>212000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>274000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1556,24 +1648,27 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,24 +1678,27 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E45" s="3">
         <v>81000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>68000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1610,24 +1708,27 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5688000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8675000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3755000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3140000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1637,24 +1738,27 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1849000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1382000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>390000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>170000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1664,24 +1768,27 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E48" s="3">
         <v>441000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>366000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>512000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1691,24 +1798,27 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>904000</v>
+      </c>
+      <c r="E49" s="3">
         <v>675000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>931000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1202000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,9 +1828,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,18 +1888,21 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,9 +1918,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,24 +1948,27 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9170000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11178000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5442000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5024000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1853,9 +1978,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,23 +2009,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>933000</v>
+      </c>
+      <c r="E57" s="3">
         <v>441000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>661000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>619000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,24 +2036,27 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E58" s="3">
         <v>144000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>140000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>161000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,24 +2066,27 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E59" s="3">
         <v>441000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,24 +2096,27 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1097000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1026000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>836000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>783000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,24 +2126,27 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2031000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10878000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8440000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2014,24 +2156,27 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E62" s="3">
         <v>102000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,9 +2186,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,24 +2276,27 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2567000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3445000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11841000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9315000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2149,9 +2306,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,24 +2440,27 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15675000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13796000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6539000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4370000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,9 +2470,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,24 +2560,27 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6603000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7733000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6399000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4291000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2405,9 +2590,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,29 +2620,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2464,24 +2655,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1683000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3449000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2608000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3747000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,9 +2685,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,23 +2702,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E83" s="3">
         <v>345000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>387000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>647000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,9 +2729,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,24 +2879,27 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-819000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-938000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-643000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2112000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,9 +2909,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,23 +2926,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-98000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,9 +2953,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,24 +3013,27 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1062000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2757000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-318000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>393000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,9 +3043,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,24 +3177,27 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1122000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6566000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1578000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1951000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,24 +3207,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-37000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>15000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2989,24 +3237,27 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3060000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2834000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>632000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>244000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,7 +3267,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GRAB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GRAB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>GRAB</t>
   </si>
@@ -880,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>58000</v>
+        <v>54000</v>
       </c>
       <c r="E14" s="3">
         <v>379000</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-361000</v>
+        <v>-196000</v>
       </c>
       <c r="E20" s="3">
         <v>57000</v>
@@ -1055,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1584000</v>
+        <v>-1419000</v>
       </c>
       <c r="E21" s="3">
         <v>-1506000</v>
@@ -1084,8 +1084,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>165000</v>
       </c>
       <c r="E22" s="3">
         <v>1701000</v>
@@ -1145,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="E24" s="3">
         <v>3000</v>
@@ -1205,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1742000</v>
+        <v>-1740000</v>
       </c>
       <c r="E26" s="3">
         <v>-3555000</v>
@@ -1385,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>361000</v>
+        <v>196000</v>
       </c>
       <c r="E32" s="3">
         <v>-57000</v>
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1952000</v>
+        <v>1448000</v>
       </c>
       <c r="E41" s="3">
         <v>4397000</v>
@@ -1598,7 +1598,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3134000</v>
+        <v>3692000</v>
       </c>
       <c r="E42" s="3">
         <v>3882000</v>
@@ -1628,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>372000</v>
+        <v>430000</v>
       </c>
       <c r="E43" s="3">
         <v>311000</v>
@@ -1688,7 +1688,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>182000</v>
+        <v>70000</v>
       </c>
       <c r="E45" s="3">
         <v>81000</v>
@@ -1748,7 +1748,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1849000</v>
+        <v>2066000</v>
       </c>
       <c r="E47" s="3">
         <v>1382000</v>
@@ -1898,7 +1898,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>237000</v>
+        <v>20000</v>
       </c>
       <c r="E52" s="3">
         <v>5000</v>
@@ -2016,7 +2016,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>933000</v>
+        <v>862000</v>
       </c>
       <c r="E57" s="3">
         <v>441000</v>
@@ -2076,7 +2076,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47000</v>
+        <v>118000</v>
       </c>
       <c r="E59" s="3">
         <v>441000</v>
@@ -2889,7 +2889,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-819000</v>
+        <v>-798000</v>
       </c>
       <c r="E89" s="3">
         <v>-938000</v>
@@ -3247,7 +3247,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3060000</v>
+        <v>-3039000</v>
       </c>
       <c r="E102" s="3">
         <v>2834000</v>
